--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lcn2-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lcn2-Lrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Lcn2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -540,28 +543,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.123191</v>
+        <v>0.195866</v>
       </c>
       <c r="H2">
-        <v>0.369573</v>
+        <v>0.5875980000000001</v>
       </c>
       <c r="I2">
-        <v>0.002002928282634175</v>
+        <v>0.00204520224202265</v>
       </c>
       <c r="J2">
-        <v>0.002002928282634175</v>
+        <v>0.00204520224202265</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N2">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.001292725290333334</v>
+        <v>0.021550744248</v>
       </c>
       <c r="R2">
-        <v>0.011634527613</v>
+        <v>0.193956698232</v>
       </c>
       <c r="S2">
-        <v>0.002002928282634175</v>
+        <v>0.00204520224202265</v>
       </c>
       <c r="T2">
-        <v>0.002002928282634175</v>
+        <v>0.00204520224202265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -608,22 +611,22 @@
         <v>6.624209</v>
       </c>
       <c r="I3">
-        <v>0.03590039195552663</v>
+        <v>0.02305631928363714</v>
       </c>
       <c r="J3">
-        <v>0.03590039195552663</v>
+        <v>0.02305631928363714</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N3">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.02317074705877778</v>
+        <v>0.242949489284</v>
       </c>
       <c r="R3">
-        <v>0.208536723529</v>
+        <v>2.186545403556</v>
       </c>
       <c r="S3">
-        <v>0.03590039195552663</v>
+        <v>0.02305631928363714</v>
       </c>
       <c r="T3">
-        <v>0.03590039195552663</v>
+        <v>0.02305631928363714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,43 +652,43 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.46625</v>
+        <v>8.31967</v>
       </c>
       <c r="H4">
-        <v>4.39875</v>
+        <v>24.95901</v>
       </c>
       <c r="I4">
-        <v>0.02383935185534948</v>
+        <v>0.08687269733842821</v>
       </c>
       <c r="J4">
-        <v>0.02383935185534948</v>
+        <v>0.08687269733842821</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N4">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.01538633875</v>
+        <v>0.9153966507600001</v>
       </c>
       <c r="R4">
-        <v>0.13847704875</v>
+        <v>8.23856985684</v>
       </c>
       <c r="S4">
-        <v>0.02383935185534948</v>
+        <v>0.08687269733842821</v>
       </c>
       <c r="T4">
-        <v>0.02383935185534948</v>
+        <v>0.08687269733842821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,43 +714,43 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.054139</v>
+        <v>0.1125653333333333</v>
       </c>
       <c r="H5">
-        <v>0.162417</v>
+        <v>0.337696</v>
       </c>
       <c r="I5">
-        <v>0.0008802309770480927</v>
+        <v>0.001175389664910501</v>
       </c>
       <c r="J5">
-        <v>0.0008802309770480927</v>
+        <v>0.001175389664910501</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N5">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.0005681166196666666</v>
+        <v>0.012385338496</v>
       </c>
       <c r="R5">
-        <v>0.005113049577</v>
+        <v>0.111468046464</v>
       </c>
       <c r="S5">
-        <v>0.0008802309770480927</v>
+        <v>0.001175389664910501</v>
       </c>
       <c r="T5">
-        <v>0.0008802309770480927</v>
+        <v>0.001175389664910501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -788,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.65379766666666</v>
+        <v>84.705523</v>
       </c>
       <c r="H6">
-        <v>172.961393</v>
+        <v>254.116569</v>
       </c>
       <c r="I6">
-        <v>0.9373770969294416</v>
+        <v>0.8844818679673917</v>
       </c>
       <c r="J6">
-        <v>0.9373770969294416</v>
+        <v>0.8844818679673917</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N6">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +821,78 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.6049997347814444</v>
+        <v>9.319979284644001</v>
       </c>
       <c r="R6">
-        <v>5.444997613033</v>
+        <v>83.879813561796</v>
       </c>
       <c r="S6">
-        <v>0.9373770969294416</v>
+        <v>0.8844818679673917</v>
       </c>
       <c r="T6">
-        <v>0.9373770969294416</v>
+        <v>0.8844818679673917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.22683</v>
+      </c>
+      <c r="H7">
+        <v>0.68049</v>
+      </c>
+      <c r="I7">
+        <v>0.002368523503609599</v>
+      </c>
+      <c r="J7">
+        <v>0.002368523503609599</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.110028</v>
+      </c>
+      <c r="N7">
+        <v>0.330084</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0.02495765124</v>
+      </c>
+      <c r="R7">
+        <v>0.22461886116</v>
+      </c>
+      <c r="S7">
+        <v>0.002368523503609599</v>
+      </c>
+      <c r="T7">
+        <v>0.002368523503609599</v>
       </c>
     </row>
   </sheetData>
